--- a/exper/WebContent/课程安排.xlsx
+++ b/exper/WebContent/课程安排.xlsx
@@ -1,71 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="14355" windowHeight="5250"/>
   </bookViews>
   <sheets>
-    <sheet name="付款" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
-    <t>银行代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>学生选课信息</t>
   </si>
   <si>
-    <t>银行名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>实验名称</t>
   </si>
   <si>
-    <t>团险银行码表信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve"> 学生姓名</t>
   </si>
   <si>
-    <t>注册日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>实验日期</t>
   </si>
   <si>
-    <t>启用状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>时段</t>
+  </si>
+  <si>
+    <t>实验状态</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -77,12 +70,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor indexed="11"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -92,48 +85,50 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -141,29 +136,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -213,71 +206,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,8 +403,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -447,20 +440,62 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
@@ -469,17 +504,17 @@
     <col min="5" max="5" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -487,43 +522,47 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>